--- a/result.xlsx
+++ b/result.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
